--- a/Config/Datas/EffectData.xlsx
+++ b/Config/Datas/EffectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43B2F22-B353-6B49-AF89-7F221975E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEDDED-1974-B644-BAFB-7EE167AF6B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EffectInfo" sheetId="1" r:id="rId1"/>
@@ -60,11 +60,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYY</t>
+    <t>刀光-蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>

--- a/Config/Datas/EffectData.xlsx
+++ b/Config/Datas/EffectData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEDDED-1974-B644-BAFB-7EE167AF6B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A5AD4-FD37-CC4E-96E2-D7B3E2B2D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -65,6 +65,22 @@
   </si>
   <si>
     <t>Effect_Sword_Slash_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光-蓝色-旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光-浅蓝色-力量竖劈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -545,6 +561,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2">
+        <v>1000002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2">
+        <v>1000003</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/EffectData.xlsx
+++ b/Config/Datas/EffectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wantdabo\Documents\GitHub\goblin\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A5AD4-FD37-CC4E-96E2-D7B3E2B2D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D9744B-888F-4842-87AF-6E7EF7932B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EffectInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -48,40 +48,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光-蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光-蓝色-旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀光-浅蓝色-力量竖劈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_Hit_1</t>
+  </si>
+  <si>
+    <t>刀光-蓝色-打击特效</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
     <t>资源路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光-蓝色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Sword_Slash_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光-蓝色-旋转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Sword_Slash_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光-浅蓝色-力量竖劈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Sword_Slash_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(毫秒)</t>
+  </si>
+  <si>
+    <t>Effect_Sword_Slash_Hit_2</t>
+  </si>
+  <si>
+    <t>刀光-蓝色-打击特效-2</t>
   </si>
 </sst>
 </file>
@@ -92,7 +109,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,7 +122,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -495,20 +512,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,13 +534,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -535,8 +556,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,43 +568,83 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="2">
         <v>1000001</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="2">
         <v>1000002</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="2">
         <v>1000003</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2">
+        <v>2000001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2">
+        <v>2000002</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
